--- a/March'21/31.03.2021/Daily Sales Info..xlsx
+++ b/March'21/31.03.2021/Daily Sales Info..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" firstSheet="3" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" firstSheet="3" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -55638,7 +55638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
@@ -57472,8 +57472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/March'21/31.03.2021/Daily Sales Info..xlsx
+++ b/March'21/31.03.2021/Daily Sales Info..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" firstSheet="3" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14146,7 +14146,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -33001,8 +33001,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52038,9 +52038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57472,8 +57472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
